--- a/ampl-data-input-excel/23-PM-Fabian/23-PM-Fabian.xlsx
+++ b/ampl-data-input-excel/23-PM-Fabian/23-PM-Fabian.xlsx
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -263,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="78">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -494,6 +495,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -647,127 +651,127 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="169" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -957,7 +961,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="1" sqref="A2:D13 A25"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1014,7 +1018,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D13"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1030,13 +1034,13 @@
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="4" t="b">
@@ -1061,11 +1065,11 @@
       <c r="D2" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E2" s="20" t="b">
+      <c r="E2" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F2" s="20" t="b">
+      <c r="F2" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B2) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1083,11 +1087,11 @@
       <c r="D3" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E3" s="20" t="b">
+      <c r="E3" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F3" s="20" t="b">
+      <c r="F3" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B3) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1105,11 +1109,11 @@
       <c r="D4" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E4" s="20" t="b">
+      <c r="E4" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F4" s="20" t="b">
+      <c r="F4" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1127,11 +1131,11 @@
       <c r="D5" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E5" s="20" t="b">
+      <c r="E5" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="b">
+      <c r="F5" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1149,11 +1153,11 @@
       <c r="D6" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E6" s="20" t="b">
+      <c r="E6" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F6" s="20" t="b">
+      <c r="F6" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1171,11 +1175,11 @@
       <c r="D7" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E7" s="20" t="b">
+      <c r="E7" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F7" s="20" t="b">
+      <c r="F7" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1193,11 +1197,11 @@
       <c r="D8" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E8" s="20" t="b">
+      <c r="E8" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F8" s="20" t="b">
+      <c r="F8" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B8) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1215,11 +1219,11 @@
       <c r="D9" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E9" s="20" t="b">
+      <c r="E9" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F9" s="20" t="b">
+      <c r="F9" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B9) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1237,11 +1241,11 @@
       <c r="D10" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E10" s="20" t="b">
+      <c r="E10" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="20" t="b">
+      <c r="F10" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B10) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1259,11 +1263,11 @@
       <c r="D11" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E11" s="20" t="b">
+      <c r="E11" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="20" t="b">
+      <c r="F11" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B11) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1281,11 +1285,11 @@
       <c r="D12" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E12" s="20" t="b">
+      <c r="E12" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F12" s="20" t="b">
+      <c r="F12" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B12) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1303,11 +1307,11 @@
       <c r="D13" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E13" s="20" t="b">
+      <c r="E13" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F13" s="20" t="b">
+      <c r="F13" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B13) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2172,7 +2176,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="1" sqref="A2:D13 L34"/>
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2194,7 +2198,7 @@
       <c r="A2" s="13" t="n">
         <v>45658</v>
       </c>
-      <c r="B2" s="20" t="b">
+      <c r="B2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A2), misc!$A$2&lt;=A2)</f>
         <v>1</v>
       </c>
@@ -2203,7 +2207,7 @@
       <c r="A3" s="13" t="n">
         <v>45767</v>
       </c>
-      <c r="B3" s="20" t="b">
+      <c r="B3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A3), misc!$A$2&lt;=A3)</f>
         <v>1</v>
       </c>
@@ -2212,7 +2216,7 @@
       <c r="A4" s="13" t="n">
         <v>45778</v>
       </c>
-      <c r="B4" s="20" t="b">
+      <c r="B4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A4), misc!$A$2&lt;=A4)</f>
         <v>1</v>
       </c>
@@ -2363,7 +2367,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="A2:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2423,7 +2427,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:D13 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2523,7 +2527,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:D13 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2622,7 +2626,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="A2:D13 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2712,7 +2716,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="A2:D13 H16"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2783,7 +2787,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:D13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2854,14 +2858,14 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="A2:D13 J30"/>
+      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.86"/>
   </cols>
   <sheetData>
@@ -2933,6 +2937,65 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2945,7 +3008,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3522,7 +3585,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="N13" s="0"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="13"/>
@@ -3530,7 +3593,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="N14" s="0"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="13"/>
@@ -3538,7 +3601,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="N15" s="0"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="13"/>
@@ -3546,7 +3609,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="N16" s="0"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="13"/>
@@ -3554,7 +3617,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="N17" s="0"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="13"/>
@@ -3562,7 +3625,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="N18" s="0"/>
+      <c r="N18" s="17"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="13"/>
@@ -3570,7 +3633,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="N19" s="0"/>
+      <c r="N19" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3602,7 +3665,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3636,11 +3699,11 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="17" t="n">
+      <c r="C2" s="18" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="n">
+      <c r="D2" s="18" t="n">
         <f aca="false">COUNTIF(tasks!$A$2:$A$607, B2) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3652,11 +3715,11 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="18" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="n">
+      <c r="D3" s="18" t="n">
         <f aca="false">COUNTIF(tasks!$A$2:$A$607, B3) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3668,11 +3731,11 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="18" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="n">
+      <c r="D4" s="18" t="n">
         <f aca="false">COUNTIF(tasks!$A$2:$A$607, B4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3684,11 +3747,11 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="18" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="18" t="n">
         <f aca="false">COUNTIF(tasks!$A$2:$A$607, B5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3700,11 +3763,11 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="18" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="18" t="n">
         <f aca="false">COUNTIF(tasks!$A$2:$A$607, B6) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3716,11 +3779,11 @@
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="C7" s="18" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D7" s="17" t="n">
+      <c r="D7" s="18" t="n">
         <f aca="false">COUNTIF(tasks!$A$2:$A$607, B7) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3732,11 +3795,11 @@
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="18" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D8" s="17" t="n">
+      <c r="D8" s="18" t="n">
         <f aca="false">COUNTIF(tasks!$A$2:$A$607, B8) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3748,11 +3811,11 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="18" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="18" t="n">
         <f aca="false">COUNTIF(tasks!$A$2:$A$607, B9) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3764,11 +3827,11 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="17" t="n">
+      <c r="C10" s="18" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D10" s="17" t="n">
+      <c r="D10" s="18" t="n">
         <f aca="false">COUNTIF(tasks!$A$2:$A$607, B10) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3780,11 +3843,11 @@
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17" t="n">
+      <c r="C11" s="18" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D11" s="17" t="n">
+      <c r="D11" s="18" t="n">
         <f aca="false">COUNTIF(tasks!$A$2:$A$607, B11) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3796,42 +3859,42 @@
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="17" t="n">
+      <c r="C12" s="18" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="18" t="n">
         <f aca="false">COUNTIF(tasks!$A$2:$A$607, B12) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3853,7 +3916,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3879,10 +3942,10 @@
       <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="4" t="b">
@@ -3912,21 +3975,21 @@
         <f aca="false">C2+75</f>
         <v>45733</v>
       </c>
-      <c r="E2" s="19" t="n">
+      <c r="E2" s="20" t="n">
         <v>0.75</v>
       </c>
-      <c r="F2" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="20" t="b">
+      <c r="F2" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H2" s="20" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B2)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I2" s="20" t="b">
+      <c r="I2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C2), ISNUMBER(D2), C2&lt;=D2)</f>
         <v>1</v>
       </c>
@@ -3945,21 +4008,21 @@
       <c r="D3" s="13" t="n">
         <v>45741</v>
       </c>
-      <c r="E3" s="19" t="n">
+      <c r="E3" s="20" t="n">
         <v>1.5</v>
       </c>
-      <c r="F3" s="19" t="n">
+      <c r="F3" s="20" t="n">
         <v>1.75</v>
       </c>
-      <c r="G3" s="20" t="b">
+      <c r="G3" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H3" s="20" t="b">
+      <c r="H3" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B3)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I3" s="20" t="b">
+      <c r="I3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C3), ISNUMBER(D3), C3&lt;=D3)</f>
         <v>1</v>
       </c>
@@ -3978,21 +4041,21 @@
         <f aca="false">C4+55</f>
         <v>45713</v>
       </c>
-      <c r="E4" s="19" t="n">
+      <c r="E4" s="20" t="n">
         <v>0.75</v>
       </c>
-      <c r="F4" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="20" t="b">
+      <c r="F4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H4" s="20" t="b">
+      <c r="H4" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B4)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I4" s="20" t="b">
+      <c r="I4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C4), ISNUMBER(D4), C4&lt;=D4)</f>
         <v>1</v>
       </c>
@@ -4011,21 +4074,21 @@
       <c r="D5" s="13" t="n">
         <v>45719</v>
       </c>
-      <c r="E5" s="19" t="n">
+      <c r="E5" s="20" t="n">
         <v>3.75</v>
       </c>
-      <c r="F5" s="19" t="n">
+      <c r="F5" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="20" t="b">
+      <c r="G5" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H5" s="20" t="b">
+      <c r="H5" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B5)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I5" s="20" t="b">
+      <c r="I5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C5), ISNUMBER(D5), C5&lt;=D5)</f>
         <v>1</v>
       </c>
@@ -4044,21 +4107,21 @@
         <f aca="false">C6+85</f>
         <v>45743</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="20" t="n">
         <v>0.75</v>
       </c>
-      <c r="F6" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="20" t="b">
+      <c r="F6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H6" s="20" t="b">
+      <c r="H6" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B6)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I6" s="20" t="b">
+      <c r="I6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C6), ISNUMBER(D6), C6&lt;=D6)</f>
         <v>1</v>
       </c>
@@ -4077,21 +4140,21 @@
       <c r="D7" s="13" t="n">
         <v>45754</v>
       </c>
-      <c r="E7" s="19" t="n">
+      <c r="E7" s="20" t="n">
         <v>2.75</v>
       </c>
-      <c r="F7" s="19" t="n">
+      <c r="F7" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="20" t="b">
+      <c r="G7" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H7" s="20" t="b">
+      <c r="H7" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B7)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I7" s="20" t="b">
+      <c r="I7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C7), ISNUMBER(D7), C7&lt;=D7)</f>
         <v>1</v>
       </c>
@@ -4110,21 +4173,21 @@
         <f aca="false">C8+140</f>
         <v>45798</v>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="20" t="n">
         <v>0.25</v>
       </c>
-      <c r="F8" s="19" t="n">
+      <c r="F8" s="20" t="n">
         <v>0.5</v>
       </c>
-      <c r="G8" s="20" t="b">
+      <c r="G8" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H8" s="20" t="b">
+      <c r="H8" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B8)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I8" s="20" t="b">
+      <c r="I8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C8), ISNUMBER(D8), C8&lt;=D8)</f>
         <v>1</v>
       </c>
@@ -4143,21 +4206,21 @@
       <c r="D9" s="13" t="n">
         <v>45810</v>
       </c>
-      <c r="E9" s="19" t="n">
+      <c r="E9" s="20" t="n">
         <v>1.75</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="F9" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="20" t="b">
+      <c r="G9" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H9" s="20" t="b">
+      <c r="H9" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B9)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I9" s="20" t="b">
+      <c r="I9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C9), ISNUMBER(D9), C9&lt;=D9)</f>
         <v>1</v>
       </c>
@@ -4176,21 +4239,21 @@
         <f aca="false">C10+15</f>
         <v>45718</v>
       </c>
-      <c r="E10" s="19" t="n">
+      <c r="E10" s="20" t="n">
         <v>3.25</v>
       </c>
-      <c r="F10" s="19" t="n">
+      <c r="F10" s="20" t="n">
         <v>3.5</v>
       </c>
-      <c r="G10" s="20" t="b">
+      <c r="G10" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H10" s="20" t="b">
+      <c r="H10" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B10)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I10" s="20" t="b">
+      <c r="I10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C10), ISNUMBER(D10), C10&lt;=D10)</f>
         <v>1</v>
       </c>
@@ -4210,21 +4273,21 @@
         <f aca="false">C11+170</f>
         <v>45889</v>
       </c>
-      <c r="E11" s="19" t="n">
+      <c r="E11" s="20" t="n">
         <v>0.75</v>
       </c>
-      <c r="F11" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="20" t="b">
+      <c r="F11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H11" s="20" t="b">
+      <c r="H11" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B11)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I11" s="20" t="b">
+      <c r="I11" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C11), ISNUMBER(D11), C11&lt;=D11)</f>
         <v>1</v>
       </c>
@@ -4243,21 +4306,21 @@
       <c r="D12" s="13" t="n">
         <v>45901</v>
       </c>
-      <c r="E12" s="19" t="n">
+      <c r="E12" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="19" t="n">
+      <c r="F12" s="20" t="n">
         <v>2.25</v>
       </c>
-      <c r="G12" s="20" t="b">
+      <c r="G12" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H12" s="20" t="b">
+      <c r="H12" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B12)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I12" s="20" t="b">
+      <c r="I12" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C12), ISNUMBER(D12), C12&lt;=D12)</f>
         <v>1</v>
       </c>
@@ -4852,7 +4915,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A2:D13 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4876,10 +4939,10 @@
       <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5247,7 +5310,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A2:D13 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5266,10 +5329,10 @@
       <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5706,7 +5769,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A2:D13 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5730,10 +5793,10 @@
       <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6101,7 +6164,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A2:D13 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6120,10 +6183,10 @@
       <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6298,7 +6361,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="A2:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6333,7 +6396,7 @@
       <c r="C2" s="24" t="n">
         <v>45672</v>
       </c>
-      <c r="D2" s="20" t="b">
+      <c r="D2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
         <v>1</v>
       </c>
@@ -6348,7 +6411,7 @@
       <c r="C3" s="24" t="n">
         <v>45701</v>
       </c>
-      <c r="D3" s="20" t="b">
+      <c r="D3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
         <v>1</v>
       </c>
@@ -6363,7 +6426,7 @@
       <c r="C4" s="26" t="n">
         <v>45732</v>
       </c>
-      <c r="D4" s="20" t="b">
+      <c r="D4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
         <v>1</v>
       </c>
@@ -6378,7 +6441,7 @@
       <c r="C5" s="26" t="n">
         <v>45761</v>
       </c>
-      <c r="D5" s="20" t="b">
+      <c r="D5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
         <v>1</v>
       </c>
@@ -6393,7 +6456,7 @@
       <c r="C6" s="26" t="n">
         <v>45795</v>
       </c>
-      <c r="D6" s="20" t="b">
+      <c r="D6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
         <v>1</v>
       </c>
@@ -6408,7 +6471,7 @@
       <c r="C7" s="26" t="n">
         <v>45826</v>
       </c>
-      <c r="D7" s="20" t="b">
+      <c r="D7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
         <v>1</v>
       </c>
@@ -6423,7 +6486,7 @@
       <c r="C8" s="26" t="n">
         <v>45855</v>
       </c>
-      <c r="D8" s="20" t="b">
+      <c r="D8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
         <v>1</v>
       </c>
@@ -6438,7 +6501,7 @@
       <c r="C9" s="26" t="n">
         <v>45886</v>
       </c>
-      <c r="D9" s="20" t="b">
+      <c r="D9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
         <v>1</v>
       </c>
@@ -6453,7 +6516,7 @@
       <c r="C10" s="13" t="n">
         <v>45915</v>
       </c>
-      <c r="D10" s="20" t="b">
+      <c r="D10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
         <v>1</v>
       </c>
@@ -6468,7 +6531,7 @@
       <c r="C11" s="13" t="n">
         <v>45945</v>
       </c>
-      <c r="D11" s="20" t="b">
+      <c r="D11" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11)</f>
         <v>1</v>
       </c>
@@ -6483,7 +6546,7 @@
       <c r="C12" s="13" t="n">
         <v>45973</v>
       </c>
-      <c r="D12" s="20" t="b">
+      <c r="D12" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12)</f>
         <v>1</v>
       </c>
@@ -6498,7 +6561,7 @@
       <c r="C13" s="13" t="n">
         <v>46002</v>
       </c>
-      <c r="D13" s="20" t="b">
+      <c r="D13" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13)</f>
         <v>1</v>
       </c>

--- a/ampl-data-input-excel/23-PM-Fabian/23-PM-Fabian.xlsx
+++ b/ampl-data-input-excel/23-PM-Fabian/23-PM-Fabian.xlsx
@@ -5,28 +5,26 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="tasks" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="links" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="task" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="assign" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="xbday" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="xbsum" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="ubday" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="ubsum" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="expert bounds" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="invoicing periods" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="ubday" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="ebday" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="period" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -52,62 +50,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Has Expert any task?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid period?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are dates OK?</t>
         </r>
       </text>
     </comment>
@@ -241,7 +183,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
@@ -263,8 +205,64 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valid expert?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valid period?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Are dates OK?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="78">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -994,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="n">
-        <f aca="false">COUNTIF(links!$A$1:$A$528, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$A$1:$A$528, A2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -1011,1355 +1009,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F181"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="13.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="b">
-        <f aca="false">AND(E2:E832)</f>
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="b">
-        <f aca="false">AND(F2:F832)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A2) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B2) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A3) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B3) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A4) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A5) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A6) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E7" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A7) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A8) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B8) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E9" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A9) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B9) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A10) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B10) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E11" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A11) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B11) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E12" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A12) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B12) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E13" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A13) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B13) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="23"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="23"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="23"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="23"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="23"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="23"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="23"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="23"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="23"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="23"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="23"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="23"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="23"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="23"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="23"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="23"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="23"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="23"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="23"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="23"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="23"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="23"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="25"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="25"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="23"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="23"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="25"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="25"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="25"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="25"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="25"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="25"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="25"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="25"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="25"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="25"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="23"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="23"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="25"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="25"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="25"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="25"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="25"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="25"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="25"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="25"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="25"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="25"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="23"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="23"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="25"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="25"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="25"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="25"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="25"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="25"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="25"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="25"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="25"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="25"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="23"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="23"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="25"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="25"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="25"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="25"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="25"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="25"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="25"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="25"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="25"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="25"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="23"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="23"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="25"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="25"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="25"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="25"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="25"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="25"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="25"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="25"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="25"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="25"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="23"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="23"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="25"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="25"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="25"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="25"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="25"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="25"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="25"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="25"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="25"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="25"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="23"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="23"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="25"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="25"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="25"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="25"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="25"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="25"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="25"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="25"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="25"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="25"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="23"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="23"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="25"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="25"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="25"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="25"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="25"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="25"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="25"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="25"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="25"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="25"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="23"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="23"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="25"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="25"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="25"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="25"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="25"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="25"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="25"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="25"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="25"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="25"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="23"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="23"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="25"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="25"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="25"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="25"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="25"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="25"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="25"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="25"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="25"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="25"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="23"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="23"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="25"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="25"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="25"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="25"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="25"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="25"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="25"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="25"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="25"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="25"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="23"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="23"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="25"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="25"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="25"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="25"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="25"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="25"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="25"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="25"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="25"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="25"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B46"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="12" t="b">
-        <f aca="false">AND(B2:B905)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(A2), misc!$A$2&lt;=A2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
-        <v>45767</v>
-      </c>
-      <c r="B3" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(A3), misc!$A$2&lt;=A3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
-        <v>45778</v>
-      </c>
-      <c r="B4" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(A4), misc!$A$2&lt;=A4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2404,7 +1053,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="29" t="n">
-        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C604))</f>
+        <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C604))</f>
         <v>46002</v>
       </c>
     </row>
@@ -2419,7 +1068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2519,7 +1168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2618,7 +1267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2708,7 +1357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2779,7 +1428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2850,7 +1499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2941,7 +1590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3007,8 +1656,8 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3080,7 +1729,7 @@
         <v>76</v>
       </c>
       <c r="F2" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B2, C2, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B2, C2, holiday!A$2:A$500)</f>
         <v>53</v>
       </c>
       <c r="G2" s="15" t="n">
@@ -3096,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="n">
-        <f aca="false">COUNTIF(links!$B$1:$B$528, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$528, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K2" s="5" t="n">
@@ -3127,7 +1776,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B3, C3, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B3, C3, holiday!A$2:A$500)</f>
         <v>6</v>
       </c>
       <c r="G3" s="15" t="n">
@@ -3143,7 +1792,7 @@
         <v>1.75</v>
       </c>
       <c r="J3" s="5" t="n">
-        <f aca="false">COUNTIF(links!$B$1:$B$528, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$528, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K3" s="5" t="n">
@@ -3174,7 +1823,7 @@
         <v>56</v>
       </c>
       <c r="F4" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B4, C4, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B4, C4, holiday!A$2:A$500)</f>
         <v>39</v>
       </c>
       <c r="G4" s="15" t="n">
@@ -3190,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="5" t="n">
-        <f aca="false">COUNTIF(links!$B$1:$B$528, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$528, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K4" s="5" t="n">
@@ -3221,7 +1870,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B5, C5, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B5, C5, holiday!A$2:A$500)</f>
         <v>4</v>
       </c>
       <c r="G5" s="15" t="n">
@@ -3237,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="5" t="n">
-        <f aca="false">COUNTIF(links!$B$1:$B$528, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$528, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K5" s="5" t="n">
@@ -3268,7 +1917,7 @@
         <v>86</v>
       </c>
       <c r="F6" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B6, C6, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B6, C6, holiday!A$2:A$500)</f>
         <v>61</v>
       </c>
       <c r="G6" s="15" t="n">
@@ -3284,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="5" t="n">
-        <f aca="false">COUNTIF(links!$B$1:$B$528, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$528, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K6" s="5" t="n">
@@ -3315,7 +1964,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B7, C7, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B7, C7, holiday!A$2:A$500)</f>
         <v>7</v>
       </c>
       <c r="G7" s="15" t="n">
@@ -3331,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="5" t="n">
-        <f aca="false">COUNTIF(links!$B$1:$B$528, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$528, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K7" s="5" t="n">
@@ -3362,7 +2011,7 @@
         <v>141</v>
       </c>
       <c r="F8" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B8, C8, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B8, C8, holiday!A$2:A$500)</f>
         <v>99</v>
       </c>
       <c r="G8" s="15" t="n">
@@ -3378,7 +2027,7 @@
         <v>0.5</v>
       </c>
       <c r="J8" s="5" t="n">
-        <f aca="false">COUNTIF(links!$B$1:$B$528, A8) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$528, A8) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K8" s="5" t="n">
@@ -3409,7 +2058,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B9, C9, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B9, C9, holiday!A$2:A$500)</f>
         <v>8</v>
       </c>
       <c r="G9" s="15" t="n">
@@ -3425,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="5" t="n">
-        <f aca="false">COUNTIF(links!$B$1:$B$528, A9) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$528, A9) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K9" s="5" t="n">
@@ -3456,7 +2105,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B10, C10, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B10, C10, holiday!A$2:A$500)</f>
         <v>18</v>
       </c>
       <c r="G10" s="15" t="n">
@@ -3472,7 +2121,7 @@
         <v>3.5</v>
       </c>
       <c r="J10" s="5" t="n">
-        <f aca="false">COUNTIF(links!$B$1:$B$528, A10) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$528, A10) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K10" s="5" t="n">
@@ -3504,7 +2153,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B11, C11, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B11, C11, holiday!A$2:A$500)</f>
         <v>92</v>
       </c>
       <c r="G11" s="15" t="n">
@@ -3520,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="5" t="n">
-        <f aca="false">COUNTIF(links!$B$1:$B$528, A11) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$528, A11) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K11" s="5" t="n">
@@ -3551,7 +2200,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B12, C12, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B12, C12, holiday!A$2:A$500)</f>
         <v>10</v>
       </c>
       <c r="G12" s="15" t="n">
@@ -3567,7 +2216,7 @@
         <v>2.25</v>
       </c>
       <c r="J12" s="5" t="n">
-        <f aca="false">COUNTIF(links!$B$1:$B$528, A12) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$528, A12) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K12" s="5" t="n">
@@ -3700,11 +2349,11 @@
         <v>13</v>
       </c>
       <c r="C2" s="18" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D2" s="18" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$607, B2) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$607, B2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3716,11 +2365,11 @@
         <v>12</v>
       </c>
       <c r="C3" s="18" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D3" s="18" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$607, B3) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$607, B3) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3732,11 +2381,11 @@
         <v>15</v>
       </c>
       <c r="C4" s="18" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D4" s="18" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$607, B4) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$607, B4) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3748,11 +2397,11 @@
         <v>14</v>
       </c>
       <c r="C5" s="18" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D5" s="18" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$607, B5) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$607, B5) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3764,11 +2413,11 @@
         <v>17</v>
       </c>
       <c r="C6" s="18" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D6" s="18" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$607, B6) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$607, B6) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3780,11 +2429,11 @@
         <v>16</v>
       </c>
       <c r="C7" s="18" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D7" s="18" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$607, B7) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$607, B7) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3796,11 +2445,11 @@
         <v>19</v>
       </c>
       <c r="C8" s="18" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A8) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A8) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D8" s="18" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$607, B8) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$607, B8) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3812,11 +2461,11 @@
         <v>18</v>
       </c>
       <c r="C9" s="18" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A9) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A9) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D9" s="18" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$607, B9) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$607, B9) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3828,11 +2477,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="18" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A10) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A10) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D10" s="18" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$607, B10) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$607, B10) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3844,11 +2493,11 @@
         <v>22</v>
       </c>
       <c r="C11" s="18" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A11) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A11) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D11" s="18" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$607, B11) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$607, B11) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3860,11 +2509,11 @@
         <v>21</v>
       </c>
       <c r="C12" s="18" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A12) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A12) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D12" s="18" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$607, B12) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$607, B12) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3916,13 +2565,13 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="6" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="2" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
@@ -3982,11 +2631,11 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H2" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$629,B2)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$629,B2)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I2" s="2" t="b">
@@ -4015,11 +2664,11 @@
         <v>1.75</v>
       </c>
       <c r="G3" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H3" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$629,B3)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$629,B3)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I3" s="2" t="b">
@@ -4048,11 +2697,11 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H4" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$629,B4)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$629,B4)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I4" s="2" t="b">
@@ -4081,11 +2730,11 @@
         <v>4</v>
       </c>
       <c r="G5" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H5" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$629,B5)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$629,B5)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I5" s="2" t="b">
@@ -4114,11 +2763,11 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H6" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$629,B6)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$629,B6)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I6" s="2" t="b">
@@ -4147,11 +2796,11 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H7" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$629,B7)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$629,B7)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I7" s="2" t="b">
@@ -4180,11 +2829,11 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A8) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A8) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H8" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$629,B8)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$629,B8)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I8" s="2" t="b">
@@ -4213,11 +2862,11 @@
         <v>2</v>
       </c>
       <c r="G9" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A9) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A9) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H9" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$629,B9)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$629,B9)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I9" s="2" t="b">
@@ -4233,11 +2882,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>45703</v>
+        <v>45731</v>
       </c>
       <c r="D10" s="13" t="n">
-        <f aca="false">C10+15</f>
-        <v>45718</v>
+        <f aca="false">C10+25</f>
+        <v>45756</v>
       </c>
       <c r="E10" s="20" t="n">
         <v>3.25</v>
@@ -4246,11 +2895,11 @@
         <v>3.5</v>
       </c>
       <c r="G10" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A10) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A10) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H10" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$629,B10)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$629,B10)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I10" s="2" t="b">
@@ -4267,11 +2916,11 @@
       </c>
       <c r="C11" s="13" t="n">
         <f aca="false">D10+1</f>
-        <v>45719</v>
+        <v>45757</v>
       </c>
       <c r="D11" s="13" t="n">
-        <f aca="false">C11+170</f>
-        <v>45889</v>
+        <f aca="false">C11+130</f>
+        <v>45887</v>
       </c>
       <c r="E11" s="20" t="n">
         <v>0.75</v>
@@ -4280,11 +2929,11 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A11) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A11) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H11" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$629,B11)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$629,B11)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I11" s="2" t="b">
@@ -4301,7 +2950,7 @@
       </c>
       <c r="C12" s="13" t="n">
         <f aca="false">D11+1</f>
-        <v>45890</v>
+        <v>45888</v>
       </c>
       <c r="D12" s="13" t="n">
         <v>45901</v>
@@ -4313,11 +2962,11 @@
         <v>2.25</v>
       </c>
       <c r="G12" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A12) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A12) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H12" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$629,B12)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$629,B12)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I12" s="2" t="b">
@@ -4912,401 +3561,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -5761,402 +4015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6353,7 +4212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6716,4 +4575,1353 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F181"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="13.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="b">
+        <f aca="false">AND(E2:E832)</f>
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="b">
+        <f aca="false">AND(F2:F832)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B2) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B3) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B4) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B5) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B6) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B7) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B8) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B9) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A10) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B10) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A11) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B11) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A12) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B12) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A13) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B13) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="23"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="23"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="23"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="23"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="23"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="23"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="23"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="23"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="23"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="23"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="23"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="23"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="23"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="23"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="23"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="23"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="23"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="23"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="23"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="23"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="23"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="23"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="25"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="25"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="23"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="23"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="25"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="25"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="25"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="25"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="25"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="25"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="25"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="25"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="25"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="25"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="23"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="23"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="25"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="25"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="25"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="25"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="25"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="25"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="25"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="25"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="25"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="25"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="23"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="23"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="25"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="25"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="25"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="25"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="25"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="25"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="25"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="25"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="25"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="25"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="23"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="23"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="25"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="25"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="25"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="25"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="25"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="25"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="25"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="25"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="25"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="25"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="23"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="23"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="25"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="25"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="25"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="25"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="25"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="25"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="25"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="25"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="25"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="25"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="23"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="23"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="25"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="25"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="25"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="25"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="25"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="25"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="25"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="25"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="25"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="25"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="23"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="23"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="25"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="25"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="25"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="25"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="25"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="25"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="25"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="25"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="25"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="25"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="23"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="23"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="25"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="25"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="25"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="25"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="25"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="25"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="25"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="25"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="25"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="25"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="23"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="23"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="25"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="25"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="25"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="25"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="25"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="25"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="25"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="25"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="25"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="25"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="23"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="23"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="25"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="25"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="25"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="25"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="25"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="25"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="25"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="25"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="25"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="25"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="23"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="23"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="25"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="25"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="25"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="25"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="25"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="25"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="25"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="25"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="25"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="25"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="23"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="23"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="25"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="25"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="25"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="25"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="25"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="25"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="25"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="25"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="25"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="25"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="12" t="b">
+        <f aca="false">AND(B2:B905)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <f aca="false">AND(ISNUMBER(A2), misc!$A$2&lt;=A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <f aca="false">AND(ISNUMBER(A3), misc!$A$2&lt;=A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <f aca="false">AND(ISNUMBER(A4), misc!$A$2&lt;=A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ampl-data-input-excel/23-PM-Fabian/23-PM-Fabian.xlsx
+++ b/ampl-data-input-excel/23-PM-Fabian/23-PM-Fabian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1597,7 +1597,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1656,7 +1656,7 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/23-PM-Fabian/23-PM-Fabian.xlsx
+++ b/ampl-data-input-excel/23-PM-Fabian/23-PM-Fabian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="80">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -390,10 +390,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">highs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -959,7 +965,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="1" sqref="D1:D2 A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1013,10 +1019,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1024,8 +1030,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="15.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1038,8 +1044,11 @@
       <c r="C1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="8" t="s">
         <v>42</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,9 +1059,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="29" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="29" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C604))</f>
         <v>46002</v>
       </c>
@@ -1076,7 +1088,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1091,13 +1103,13 @@
         <v>40</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1106,19 +1118,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,14 +1148,14 @@
         <v>45657</v>
       </c>
       <c r="F2" s="21" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46002</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.3</v>
@@ -1153,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1176,7 +1188,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1187,16 +1199,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1205,19 +1217,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1235,14 +1247,14 @@
         <v>45657</v>
       </c>
       <c r="F2" s="21" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46002</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.3</v>
@@ -1252,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1275,7 +1287,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1286,16 +1298,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1304,13 +1316,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,7 +1340,7 @@
         <v>45657</v>
       </c>
       <c r="F2" s="21" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46002</v>
       </c>
       <c r="G2" s="6" t="n">
@@ -1339,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1365,7 +1377,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="D1:D2 H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1376,25 +1388,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,7 +1420,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>0.9</v>
@@ -1436,7 +1448,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1447,25 +1459,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,10 +1491,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>4</v>
@@ -1507,7 +1519,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="D1:D2 J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1520,34 +1532,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,16 +1573,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.5</v>
@@ -1597,8 +1609,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1609,19 +1621,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,7 +1669,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="D1:D2 C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2314,7 +2326,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2565,7 +2577,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="D1:D2 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3564,7 +3576,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4023,7 +4035,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4220,7 +4232,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4585,7 +4597,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="1" sqref="D1:D2 L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5743,7 +5755,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="1" sqref="D1:D2 K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/23-PM-Fabian/23-PM-Fabian.xlsx
+++ b/ampl-data-input-excel/23-PM-Fabian/23-PM-Fabian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="81">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -402,6 +403,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -411,6 +415,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -418,12 +428,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -650,7 +654,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -772,10 +776,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -965,7 +965,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="1" sqref="D1:D2 A25"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1021,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1085,31 +1085,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1117,65 +1116,47 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="21" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
       <c r="F2" s="21" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46002</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="31" t="b">
+        <f aca="false">E2+20</f>
+        <v>45677</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="31" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1185,87 +1166,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45657</v>
-      </c>
-      <c r="F2" s="21" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46002</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="6" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1284,79 +1220,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45657</v>
-      </c>
-      <c r="F2" s="21" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46002</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M21" s="1"/>
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1374,16 +1273,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="D1:D2 H16"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,43 +1290,16 @@
         <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="6" t="n">
         <v>0.6</v>
       </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1445,59 +1317,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="6" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1516,79 +1370,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="D1:D2 J30"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
+      <c r="D2" s="6" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1607,46 +1423,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1669,7 +1540,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="D1:D2 C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2326,7 +2197,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2577,7 +2448,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="D1:D2 D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3576,7 +3447,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4035,7 +3906,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4232,7 +4103,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4597,7 +4468,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="1" sqref="D1:D2 L16"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5755,7 +5626,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="1" sqref="D1:D2 K19"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/23-PM-Fabian/23-PM-Fabian.xlsx
+++ b/ampl-data-input-excel/23-PM-Fabian/23-PM-Fabian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -391,7 +391,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -965,7 +965,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="1" sqref="D1:D2 A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1021,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D1:D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1426,7 +1426,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1498,8 +1498,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="1" sqref="D1:D2 E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1540,7 +1540,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="D1:D2 C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2197,7 +2197,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2448,7 +2448,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="D1:D2 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3447,7 +3447,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3906,7 +3906,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4103,7 +4103,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4468,7 +4468,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="1" sqref="D1:D2 L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5626,7 +5626,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="1" sqref="D1:D2 K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
